--- a/Test Results - Second EXFO Group/switch_test_combined_EO193700115.xlsx
+++ b/Test Results - Second EXFO Group/switch_test_combined_EO193700115.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OSICS_Interface\Test Results - Second EXFO Group\EXFO 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OSICS_Interface\Test Results - Second EXFO Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B337568F-3DE3-4DC8-A6ED-1AEFCAC1357B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088EB48F-1F90-435E-B8BC-23A67CB74D9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64785" yWindow="1575" windowWidth="22425" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="switch_test_combined" sheetId="1" r:id="rId1"/>
@@ -1484,7 +1484,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2621,7 +2621,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3725,7 +3725,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4829,7 +4829,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -8017,7 +8017,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -10536,13 +10536,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>85353</xdr:colOff>
+      <xdr:colOff>85355</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>66800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13609</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
